--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
@@ -419,7 +419,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),</t>
+    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
@@ -419,7 +419,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),</t>
+    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
@@ -419,7 +419,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),</t>
+    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
@@ -419,7 +419,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),</t>
+    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>
@@ -455,7 +455,7 @@
     <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Meta Adversarial Threat Report 2022),</t>
   </si>
   <si>
-    <t>,(Citation: Cyfirma Bahamut),(Citation: BlackBerry Bahamut),</t>
+    <t>,(Citation: BlackBerry Bahamut),(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
@@ -419,7 +419,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),</t>
+    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>
@@ -455,7 +455,7 @@
     <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Meta Adversarial Threat Report 2022),</t>
   </si>
   <si>
-    <t>,(Citation: BlackBerry Bahamut),(Citation: Cyfirma Bahamut),</t>
+    <t>,(Citation: Cyfirma Bahamut),(Citation: BlackBerry Bahamut),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
@@ -419,7 +419,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),</t>
+    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
@@ -419,7 +419,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),</t>
+    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>
@@ -443,7 +443,7 @@
     <t>,(Citation: MoustachedBouncer ESET August 2023),</t>
   </si>
   <si>
-    <t>,,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
+    <t>,,(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
   </si>
   <si>
     <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Leonard TAG 2023),</t>
@@ -455,7 +455,7 @@
     <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Meta Adversarial Threat Report 2022),</t>
   </si>
   <si>
-    <t>,(Citation: Cyfirma Bahamut),(Citation: BlackBerry Bahamut),</t>
+    <t>,(Citation: BlackBerry Bahamut),(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
@@ -419,7 +419,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),</t>
+    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>
@@ -443,7 +443,7 @@
     <t>,(Citation: MoustachedBouncer ESET August 2023),</t>
   </si>
   <si>
-    <t>,,(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
+    <t>,,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
   </si>
   <si>
     <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Leonard TAG 2023),</t>
@@ -455,7 +455,7 @@
     <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Meta Adversarial Threat Report 2022),</t>
   </si>
   <si>
-    <t>,(Citation: BlackBerry Bahamut),(Citation: Cyfirma Bahamut),</t>
+    <t>,(Citation: Cyfirma Bahamut),(Citation: BlackBerry Bahamut),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
@@ -419,7 +419,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),</t>
+    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>
@@ -443,7 +443,7 @@
     <t>,(Citation: MoustachedBouncer ESET August 2023),</t>
   </si>
   <si>
-    <t>,,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
+    <t>,,(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
   </si>
   <si>
     <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Leonard TAG 2023),</t>
@@ -455,7 +455,7 @@
     <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Meta Adversarial Threat Report 2022),</t>
   </si>
   <si>
-    <t>,(Citation: Cyfirma Bahamut),(Citation: BlackBerry Bahamut),</t>
+    <t>,(Citation: BlackBerry Bahamut),(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
@@ -443,7 +443,7 @@
     <t>,(Citation: MoustachedBouncer ESET August 2023),</t>
   </si>
   <si>
-    <t>,,(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
+    <t>,,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
   </si>
   <si>
     <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Leonard TAG 2023),</t>
@@ -455,7 +455,7 @@
     <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Meta Adversarial Threat Report 2022),</t>
   </si>
   <si>
-    <t>,(Citation: BlackBerry Bahamut),(Citation: Cyfirma Bahamut),</t>
+    <t>,(Citation: Cyfirma Bahamut),(Citation: BlackBerry Bahamut),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
@@ -419,7 +419,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),</t>
+    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>
@@ -443,7 +443,7 @@
     <t>,(Citation: MoustachedBouncer ESET August 2023),</t>
   </si>
   <si>
-    <t>,,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
+    <t>,,(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
   </si>
   <si>
     <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Leonard TAG 2023),</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
@@ -419,7 +419,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),</t>
+    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>
